--- a/myapp/files/9_MethodComparePercent/Scenario 299.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 299.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>3248</v>
+        <v>9927</v>
       </c>
       <c r="F2" t="n">
-        <v>3.25532448008018</v>
+        <v>2.11032266019277</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.63934426229508</v>
+        <v>1.94552529182879</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4274</v>
+        <v>18417</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28363818591832</v>
+        <v>3.91516192533195</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>4.91803278688525</v>
+        <v>3.89105058365759</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>6099</v>
+        <v>30736</v>
       </c>
       <c r="F4" t="n">
-        <v>6.11275369581559</v>
+        <v>6.5339858248902</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>4.91803278688525</v>
+        <v>5.44747081712062</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>7307</v>
+        <v>26601</v>
       </c>
       <c r="F5" t="n">
-        <v>7.32347782510649</v>
+        <v>5.65495044663926</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -707,10 +707,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>6.55737704918033</v>
+        <v>5.83657587548638</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>10028</v>
+        <v>17396</v>
       </c>
       <c r="F6" t="n">
-        <v>10.0506138812328</v>
+        <v>3.69811352842888</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>9.83606557377049</v>
+        <v>5.05836575875486</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7611</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.61797781472018</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.55642023346304</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1908</v>
+        <v>20010</v>
       </c>
       <c r="F8" t="n">
-        <v>1.91230268103232</v>
+        <v>4.25380844469199</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -821,10 +821,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>3.27868852459016</v>
+        <v>5.05836575875486</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4687</v>
+        <v>40382</v>
       </c>
       <c r="F9" t="n">
-        <v>4.69756953144575</v>
+        <v>8.58457234450534</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -859,10 +859,10 @@
         <v>8.45070422535211</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>6.55737704918033</v>
+        <v>7.78210116731517</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2702</v>
+        <v>34645</v>
       </c>
       <c r="F10" t="n">
-        <v>2.70809320972187</v>
+        <v>7.36497718972283</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>3.27868852459016</v>
+        <v>7.78210116731517</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>6795</v>
+        <v>20175</v>
       </c>
       <c r="F11" t="n">
-        <v>6.81032322726134</v>
+        <v>4.28888482616996</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>4.91803278688525</v>
+        <v>5.05836575875486</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3075</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.653696200271257</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.389105058365759</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4432</v>
+        <v>20353</v>
       </c>
       <c r="F13" t="n">
-        <v>4.44199448759709</v>
+        <v>4.32672480134013</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.27868852459016</v>
+        <v>3.50194552529183</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>4862</v>
+        <v>42770</v>
       </c>
       <c r="F14" t="n">
-        <v>4.87296416938111</v>
+        <v>9.09222324735014</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
@@ -1049,10 +1049,10 @@
         <v>18.3098591549296</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>6.55737704918033</v>
+        <v>6.6147859922179</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>8093</v>
+        <v>31886</v>
       </c>
       <c r="F15" t="n">
-        <v>8.11125031320471</v>
+        <v>6.77845757458514</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
@@ -1087,10 +1087,10 @@
         <v>19.7183098591549</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J15" t="n">
-        <v>11.4754098360656</v>
+        <v>8.94941634241245</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>5853</v>
+        <v>16150</v>
       </c>
       <c r="F16" t="n">
-        <v>5.86619894763217</v>
+        <v>3.43323370223766</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>9.83606557377049</v>
+        <v>4.66926070038911</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2530</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.537837849328872</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.389105058365759</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>2808</v>
+        <v>11377</v>
       </c>
       <c r="F18" t="n">
-        <v>2.814332247557</v>
+        <v>2.41856964893857</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.63934426229508</v>
+        <v>2.33463035019455</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5832</v>
+        <v>26099</v>
       </c>
       <c r="F19" t="n">
-        <v>5.84515159107993</v>
+        <v>5.54823321329416</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>1.63934426229508</v>
+        <v>4.66926070038911</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>8283</v>
+        <v>30741</v>
       </c>
       <c r="F20" t="n">
-        <v>8.30167877724881</v>
+        <v>6.53504874554105</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1277,10 +1277,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>6.55737704918033</v>
+        <v>7.39299610894942</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2163</v>
+        <v>13406</v>
       </c>
       <c r="F21" t="n">
-        <v>2.16787772488098</v>
+        <v>2.84990284905251</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.27868852459016</v>
+        <v>3.50194552529183</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1596</v>
+        <v>4080</v>
       </c>
       <c r="F22" t="n">
-        <v>1.59959909797043</v>
+        <v>0.867343251091619</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.63934426229508</v>
+        <v>0.778210116731518</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1701</v>
+        <v>6075</v>
       </c>
       <c r="F23" t="n">
-        <v>1.70483588073165</v>
+        <v>1.2914485907798</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.63934426229508</v>
+        <v>0.778210116731518</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1701</v>
+        <v>6354</v>
       </c>
       <c r="F24" t="n">
-        <v>1.70483588073165</v>
+        <v>1.3507595630971</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.63934426229508</v>
+        <v>1.16731517509728</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1701</v>
+        <v>11184</v>
       </c>
       <c r="F25" t="n">
-        <v>1.70483588073165</v>
+        <v>2.37754091181585</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.63934426229508</v>
+        <v>2.72373540856031</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>3702</v>
+        <v>18422</v>
       </c>
       <c r="F26" t="n">
-        <v>3.71034828363819</v>
+        <v>3.9162248459828</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.27868852459016</v>
+        <v>2.72373540856031</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
